--- a/Gestão do Projeto/Indicadores/IndicadoresGI.xlsx
+++ b/Gestão do Projeto/Indicadores/IndicadoresGI.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7710146-B34E-674A-BB11-88C105919332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510DD3A-669F-3045-84D7-98EAFDC2DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{3A182DB3-8852-C547-9D7B-DB03E62C79A7}"/>
+    <workbookView xWindow="1580" yWindow="940" windowWidth="27240" windowHeight="16440" xr2:uid="{3A182DB3-8852-C547-9D7B-DB03E62C79A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Bloco</t>
   </si>
@@ -161,6 +161,9 @@
 Include codes from http://snomed.info/sct where concept descends from 373873005 (Pharmaceutical / biologic product (product))
 Include codes from http://snomed.info/sct where concept descends from 418038007 (Propensity to adverse reactions to substance)
  </t>
+  </si>
+  <si>
+    <t>Custodian</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1373E5CB-71AD-2A46-A340-80FF6BF6605E}">
-  <dimension ref="B3:L28"/>
+  <dimension ref="B3:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="6" width="29.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.83203125" customWidth="1"/>
@@ -624,7 +630,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -632,88 +638,81 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="E13" s="3" t="s">
+    <row r="15" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="16" spans="2:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51" x14ac:dyDescent="0.2">
@@ -721,35 +720,47 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="404" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="51" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="404" x14ac:dyDescent="0.2">
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
+      <c r="H20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E21" s="3"/>
@@ -771,43 +782,56 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="E25" s="1" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>36</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B10"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{92C4C885-1EC9-6A4A-98F6-D4F70715D75E}"/>
-    <hyperlink ref="I14" r:id="rId2" xr:uid="{B537A2AC-9969-0C40-BAB9-13FA50EBE301}"/>
-    <hyperlink ref="I15" r:id="rId3" xr:uid="{77284376-52AC-244F-B56E-DF05E08C2735}"/>
-    <hyperlink ref="I16" r:id="rId4" xr:uid="{86A0BB20-CEBC-F34C-B743-0747D42B504E}"/>
-    <hyperlink ref="I17" r:id="rId5" xr:uid="{770E9771-9909-B049-A8C9-E5D2E96ACB67}"/>
-    <hyperlink ref="I18" r:id="rId6" xr:uid="{E3CE282D-3EA3-2C46-9205-E5774C86999A}"/>
-    <hyperlink ref="I28" r:id="rId7" xr:uid="{2DF0E4AC-75B7-9F4D-9DE1-B296272D7322}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{92C4C885-1EC9-6A4A-98F6-D4F70715D75E}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{B537A2AC-9969-0C40-BAB9-13FA50EBE301}"/>
+    <hyperlink ref="I17" r:id="rId3" xr:uid="{77284376-52AC-244F-B56E-DF05E08C2735}"/>
+    <hyperlink ref="I18" r:id="rId4" xr:uid="{86A0BB20-CEBC-F34C-B743-0747D42B504E}"/>
+    <hyperlink ref="I19" r:id="rId5" xr:uid="{770E9771-9909-B049-A8C9-E5D2E96ACB67}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{E3CE282D-3EA3-2C46-9205-E5774C86999A}"/>
+    <hyperlink ref="I30" r:id="rId7" xr:uid="{2DF0E4AC-75B7-9F4D-9DE1-B296272D7322}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
